--- a/study_docs/Python Batch 1- Foundation Training Plan - March 2025.xlsx
+++ b/study_docs/Python Batch 1- Foundation Training Plan - March 2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hexawareonline-my.sharepoint.com/personal/2000114881_hexaware_com/Documents/Sudha G/2025/3 Mar/Foundation Training - Python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5547a4fbaa16ba0f/Desktop/H2/study_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{51B6E137-384B-4C07-9D44-EBBDEECF854F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{210C6419-6026-4278-8B84-B76947072160}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="731" xr2:uid="{7099B43E-2618-4751-BD83-56A694EF2D35}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="731" xr2:uid="{7099B43E-2618-4751-BD83-56A694EF2D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Workshop Schedule" sheetId="9" r:id="rId1"/>
@@ -1001,56 +1001,56 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1369,19 +1369,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{273E7271-0C0D-499A-952D-65714BF1C1E7}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.21875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>45</v>
       </c>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="C6" s="49"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>48</v>
       </c>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="C7" s="49"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>51</v>
       </c>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="C8" s="49"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>53</v>
       </c>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C9" s="49"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>55</v>
       </c>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C10" s="50"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>57</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>58</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>59</v>
       </c>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C13" s="49"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>61</v>
       </c>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="C14" s="49"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>62</v>
       </c>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C15" s="49"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>65</v>
       </c>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="C16" s="49"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>67</v>
       </c>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="C17" s="49"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>71</v>
       </c>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="C18" s="50"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>85</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>134</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>135</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>136</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>137</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
         <v>138</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="47" t="s">
         <v>139</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
@@ -1653,25 +1653,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FDFA356-A291-447F-B04A-A5CD5A982ECA}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" zoomScale="266" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="74" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="44" t="s">
         <v>119</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="45">
         <v>1</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="45">
         <v>2</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="45">
         <v>3</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="45">
         <v>4</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="45">
         <v>5</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="45">
         <v>6</v>
       </c>
@@ -1905,27 +1905,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA07742-60C7-481A-82E3-F03F5DD0CE9E}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48:C49"/>
+    <sheetView showGridLines="0" zoomScale="26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="27.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.81640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="29.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="29.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="1"/>
-    <col min="11" max="11" width="44.1796875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col min="9" max="9" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" style="1"/>
+    <col min="11" max="11" width="44.21875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="21" customFormat="1" ht="43" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="21" customFormat="1" ht="44.4" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
@@ -1954,14 +1954,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" customFormat="1" ht="62" x14ac:dyDescent="0.35">
-      <c r="A2" s="51">
+    <row r="2" spans="1:11" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="63">
         <v>1</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="63" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="18" t="s">
@@ -1979,10 +1979,10 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
     </row>
-    <row r="3" spans="1:11" customFormat="1" ht="62" x14ac:dyDescent="0.35">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+    <row r="3" spans="1:11" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2001,10 +2001,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:11" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
+    <row r="4" spans="1:11" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="18" t="s">
         <v>17</v>
       </c>
@@ -2023,10 +2023,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:11" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
+    <row r="5" spans="1:11" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="18" t="s">
         <v>19</v>
       </c>
@@ -2042,10 +2042,10 @@
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
     </row>
-    <row r="6" spans="1:11" customFormat="1" ht="62" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
+    <row r="6" spans="1:11" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="18" t="s">
         <v>21</v>
       </c>
@@ -2064,14 +2064,14 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:11" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="54">
+    <row r="7" spans="1:11" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A7" s="67">
         <v>2</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="59" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -2092,10 +2092,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:11" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="56"/>
+    <row r="8" spans="1:11" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="14" t="s">
         <v>26</v>
       </c>
@@ -2111,14 +2111,14 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:11" s="17" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="51">
+    <row r="9" spans="1:11" s="17" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="63">
         <v>3</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="63" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="19" t="s">
@@ -2136,10 +2136,10 @@
       <c r="H9" s="39"/>
       <c r="I9" s="39"/>
     </row>
-    <row r="10" spans="1:11" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
+    <row r="10" spans="1:11" s="17" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="19" t="s">
         <v>32</v>
       </c>
@@ -2155,10 +2155,10 @@
       <c r="H10" s="39"/>
       <c r="I10" s="39"/>
     </row>
-    <row r="11" spans="1:11" s="17" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
+    <row r="11" spans="1:11" s="17" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="19" t="s">
         <v>34</v>
       </c>
@@ -2174,10 +2174,10 @@
       <c r="H11" s="39"/>
       <c r="I11" s="39"/>
     </row>
-    <row r="12" spans="1:11" s="17" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
+    <row r="12" spans="1:11" s="17" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="19" t="s">
         <v>36</v>
       </c>
@@ -2193,10 +2193,10 @@
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
     </row>
-    <row r="13" spans="1:11" s="17" customFormat="1" ht="155" x14ac:dyDescent="0.35">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
+    <row r="13" spans="1:11" s="17" customFormat="1" ht="178.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="19" t="s">
         <v>38</v>
       </c>
@@ -2212,10 +2212,10 @@
       <c r="H13" s="39"/>
       <c r="I13" s="39"/>
     </row>
-    <row r="14" spans="1:11" s="17" customFormat="1" ht="170.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="57" t="s">
+    <row r="14" spans="1:11" s="17" customFormat="1" ht="178.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="18" t="s">
@@ -2233,10 +2233,10 @@
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
     </row>
-    <row r="15" spans="1:11" s="17" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="58"/>
+    <row r="15" spans="1:11" s="17" customFormat="1" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="18" t="s">
         <v>42</v>
       </c>
@@ -2252,10 +2252,10 @@
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
     </row>
-    <row r="16" spans="1:11" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="59"/>
+    <row r="16" spans="1:11" s="17" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="32" t="s">
         <v>44</v>
       </c>
@@ -2269,13 +2269,13 @@
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
     </row>
-    <row r="17" spans="1:11" s="17" customFormat="1" ht="62" x14ac:dyDescent="0.35">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="51" t="s">
+    <row r="17" spans="1:11" s="17" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="63" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="23" t="s">
@@ -2290,11 +2290,11 @@
       <c r="H17" s="39"/>
       <c r="I17" s="39"/>
     </row>
-    <row r="18" spans="1:11" s="17" customFormat="1" ht="93" x14ac:dyDescent="0.35">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
+    <row r="18" spans="1:11" s="17" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="23" t="s">
         <v>47</v>
       </c>
@@ -2307,10 +2307,10 @@
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
     </row>
-    <row r="19" spans="1:11" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
+    <row r="19" spans="1:11" s="17" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="18" t="s">
         <v>44</v>
       </c>
@@ -2324,13 +2324,13 @@
       <c r="H19" s="40"/>
       <c r="I19" s="40"/>
     </row>
-    <row r="20" spans="1:11" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="51" t="s">
+    <row r="20" spans="1:11" s="17" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="51" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="18" t="s">
@@ -2343,11 +2343,11 @@
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="1:11" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="59"/>
+    <row r="21" spans="1:11" s="17" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="18" t="s">
         <v>50</v>
       </c>
@@ -2358,10 +2358,10 @@
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="1:11" s="17" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" s="17" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="59" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -2377,14 +2377,14 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="1:11" ht="139.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="55">
+    <row r="23" spans="1:11" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="A23" s="59">
         <v>4</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="56"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="14" t="s">
         <v>96</v>
       </c>
@@ -2403,10 +2403,10 @@
       <c r="I23" s="14"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="1:11" ht="217" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="55" t="s">
+    <row r="24" spans="1:11" ht="226.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="66"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="59" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="14" t="s">
@@ -2427,10 +2427,10 @@
       <c r="I24" s="14"/>
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="1:11" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="56"/>
+    <row r="25" spans="1:11" s="17" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="66"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="60"/>
       <c r="D25" s="31" t="s">
         <v>44</v>
       </c>
@@ -2444,10 +2444,10 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" spans="1:11" ht="155" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="55" t="s">
+    <row r="26" spans="1:11" ht="162" x14ac:dyDescent="0.3">
+      <c r="A26" s="66"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="59" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -2468,10 +2468,10 @@
       <c r="I26" s="14"/>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="1:11" ht="46.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
+    <row r="27" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="66"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
       <c r="D27" s="11" t="s">
         <v>56</v>
       </c>
@@ -2486,10 +2486,10 @@
       <c r="I27" s="14"/>
       <c r="K27" s="17"/>
     </row>
-    <row r="28" spans="1:11" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="56"/>
+    <row r="28" spans="1:11" s="17" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="66"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="60"/>
       <c r="D28" s="31" t="s">
         <v>44</v>
       </c>
@@ -2503,10 +2503,10 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" spans="1:11" s="17" customFormat="1" ht="77.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="55" t="s">
+    <row r="29" spans="1:11" s="17" customFormat="1" ht="81" x14ac:dyDescent="0.3">
+      <c r="A29" s="66"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="59" t="s">
         <v>57</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -2522,10 +2522,10 @@
       <c r="H29" s="41"/>
       <c r="I29" s="41"/>
     </row>
-    <row r="30" spans="1:11" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
+    <row r="30" spans="1:11" s="17" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="66"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="14" t="s">
         <v>103</v>
       </c>
@@ -2539,10 +2539,10 @@
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
     </row>
-    <row r="31" spans="1:11" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="56"/>
+    <row r="31" spans="1:11" s="17" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="60"/>
       <c r="D31" s="31" t="s">
         <v>44</v>
       </c>
@@ -2556,10 +2556,10 @@
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="1:11" s="17" customFormat="1" ht="124" x14ac:dyDescent="0.35">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
-      <c r="C32" s="55" t="s">
+    <row r="32" spans="1:11" s="17" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="66"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="59" t="s">
         <v>58</v>
       </c>
       <c r="D32" s="14" t="s">
@@ -2575,10 +2575,10 @@
       <c r="H32" s="41"/>
       <c r="I32" s="41"/>
     </row>
-    <row r="33" spans="1:11" s="17" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
+    <row r="33" spans="1:11" s="17" customFormat="1" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="14" t="s">
         <v>4</v>
       </c>
@@ -2592,10 +2592,10 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" spans="1:11" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="56"/>
+    <row r="34" spans="1:11" s="17" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="60"/>
       <c r="D34" s="31" t="s">
         <v>44</v>
       </c>
@@ -2609,10 +2609,10 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="1:11" s="17" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="55" t="s">
+    <row r="35" spans="1:11" s="17" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="59" t="s">
         <v>59</v>
       </c>
       <c r="D35" s="14" t="s">
@@ -2630,10 +2630,10 @@
       <c r="H35" s="41"/>
       <c r="I35" s="41"/>
     </row>
-    <row r="36" spans="1:11" s="17" customFormat="1" ht="62" x14ac:dyDescent="0.35">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
+    <row r="36" spans="1:11" s="17" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="31" t="s">
         <v>60</v>
       </c>
@@ -2647,10 +2647,10 @@
       <c r="H36" s="41"/>
       <c r="I36" s="41"/>
     </row>
-    <row r="37" spans="1:11" s="17" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="56"/>
+    <row r="37" spans="1:11" s="17" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="66"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="60"/>
       <c r="D37" s="31" t="s">
         <v>44</v>
       </c>
@@ -2664,10 +2664,10 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="1:11" s="17" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="55" t="s">
+    <row r="38" spans="1:11" s="17" customFormat="1" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="66"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="59" t="s">
         <v>61</v>
       </c>
       <c r="D38" s="14" t="s">
@@ -2683,10 +2683,10 @@
       <c r="H38" s="41"/>
       <c r="I38" s="41"/>
     </row>
-    <row r="39" spans="1:11" s="17" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
+    <row r="39" spans="1:11" s="17" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A39" s="66"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="37" t="s">
         <v>113</v>
       </c>
@@ -2700,14 +2700,14 @@
       <c r="H39" s="41"/>
       <c r="I39" s="41"/>
     </row>
-    <row r="40" spans="1:11" s="17" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A40" s="57">
+    <row r="40" spans="1:11" s="17" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A40" s="51">
         <v>6</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="57" t="s">
+      <c r="C40" s="51" t="s">
         <v>62</v>
       </c>
       <c r="D40" s="40" t="s">
@@ -2723,10 +2723,10 @@
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:11" s="17" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="58"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
+    <row r="41" spans="1:11" s="17" customFormat="1" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="18" t="s">
         <v>64</v>
       </c>
@@ -2740,10 +2740,10 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
     </row>
-    <row r="42" spans="1:11" s="17" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="58"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="57" t="s">
+    <row r="42" spans="1:11" s="17" customFormat="1" ht="113.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="56"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="51" t="s">
         <v>65</v>
       </c>
       <c r="D42" s="18" t="s">
@@ -2759,10 +2759,10 @@
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:11" s="17" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
+    <row r="43" spans="1:11" s="17" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="18" t="s">
         <v>117</v>
       </c>
@@ -2776,15 +2776,15 @@
       <c r="H43" s="18"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:11" s="17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" s="17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="30"/>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="57" t="s">
+      <c r="D44" s="51" t="s">
         <v>118</v>
       </c>
       <c r="E44" s="35" t="s">
@@ -2797,11 +2797,11 @@
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:11" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A45" s="30"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="59"/>
+      <c r="B45" s="64"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
       <c r="E45" s="33" t="s">
         <v>69</v>
       </c>
@@ -2813,14 +2813,14 @@
       <c r="I45" s="40"/>
       <c r="K45" s="17"/>
     </row>
-    <row r="46" spans="1:11" ht="78" x14ac:dyDescent="0.3">
-      <c r="A46" s="61">
+    <row r="46" spans="1:11" ht="82.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="57">
         <v>7</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="63" t="s">
+      <c r="C46" s="61" t="s">
         <v>71</v>
       </c>
       <c r="D46" s="25" t="s">
@@ -2838,10 +2838,10 @@
       <c r="H46" s="42"/>
       <c r="I46" s="42"/>
     </row>
-    <row r="47" spans="1:11" ht="65" x14ac:dyDescent="0.3">
-      <c r="A47" s="62"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="64"/>
+    <row r="47" spans="1:11" ht="69" x14ac:dyDescent="0.3">
+      <c r="A47" s="58"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="25" t="s">
         <v>73</v>
       </c>
@@ -2857,14 +2857,14 @@
       <c r="H47" s="42"/>
       <c r="I47" s="42"/>
     </row>
-    <row r="48" spans="1:11" ht="65" x14ac:dyDescent="0.3">
-      <c r="A48" s="57">
+    <row r="48" spans="1:11" ht="69" x14ac:dyDescent="0.3">
+      <c r="A48" s="51">
         <v>8</v>
       </c>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="54" t="s">
         <v>85</v>
       </c>
       <c r="D48" s="29" t="s">
@@ -2882,10 +2882,10 @@
       <c r="H48" s="43"/>
       <c r="I48" s="43"/>
     </row>
-    <row r="49" spans="1:9" ht="39" x14ac:dyDescent="0.3">
-      <c r="A49" s="59"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="67"/>
+    <row r="49" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="52"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="55"/>
       <c r="D49" s="29" t="s">
         <v>78</v>
       </c>
@@ -2909,12 +2909,20 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C32:C34"/>
     <mergeCell ref="D44:D45"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="B46:B47"/>
@@ -2931,20 +2939,12 @@
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="A9:A21"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2953,26 +2953,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2427474e-60f8-4f75-abfc-98841d67cf98" ContentTypeId="0x01" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004AC3E03F954406448D57A63F810EB967" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="52e6b73825859cad1527a80b81e763dd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -3086,32 +3066,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6973C3B0-8CE8-4B28-810C-8D7411FE369B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="2427474e-60f8-4f75-abfc-98841d67cf98" ContentTypeId="0x01" PreviousValue="false"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DA35318-3F34-48CC-8A55-62D58D2CBB91}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEF3DC22-7D19-493B-89C6-F7B61160F957}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF0C58A0-E478-4B1A-8F74-6643D6C5F2A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3125,4 +3100,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEF3DC22-7D19-493B-89C6-F7B61160F957}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DA35318-3F34-48CC-8A55-62D58D2CBB91}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6973C3B0-8CE8-4B28-810C-8D7411FE369B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>